--- a/medicine/Psychotrope/Tabac_d'ornement/Tabac_d'ornement.xlsx
+++ b/medicine/Psychotrope/Tabac_d'ornement/Tabac_d'ornement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabac_d%27ornement</t>
+          <t>Tabac_d'ornement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression tabacs d'ornement (nom scientifique Nicotiana spp.) est un nom vernaculaire ambigu désignant en français des plantes herbacées ou arbustives vivaces (cultivée comme annuelles), au feuillage persistant, de la famille des solanacées et appartenant au genre Nicotiana.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabac_d%27ornement</t>
+          <t>Tabac_d'ornement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires et taxons correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Note : certaines espèces ont plusieurs noms.
 Tabac ailé - Nicotiana alata (ou Nicotiana affinis)
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabac_d%27ornement</t>
+          <t>Tabac_d'ornement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Point communs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des espèces originaires d'Amérique centrale ou d'Amérique du Sud.
 Proches du tabac utilisé pour la fabrication de cigarettes ou de cigares, elles sont cultivées pour les qualités ornementales soit de leur feuillage, soit de leurs fleurs, en forme de trompette et très parfumées. 
